--- a/LRPAnalysisResults/divisions_corrected.xlsx
+++ b/LRPAnalysisResults/divisions_corrected.xlsx
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>227</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>295</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>282</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>292</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
         <v>291</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>282</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,7 +3412,7 @@
         <v>248</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,7 +5008,7 @@
         <v>198</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,7 +5019,7 @@
         <v>255</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5151,7 +5151,7 @@
         <v>89</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -6438,7 +6438,7 @@
         <v>285</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6673,8 +6673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7165,7 +7165,7 @@
         <v>178</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7407,7 +7407,7 @@
         <v>286</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7429,7 +7429,7 @@
         <v>286</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7627,7 +7627,7 @@
         <v>319</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7638,7 +7638,7 @@
         <v>325</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>341</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>342</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
         <v>284</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -7924,7 +7924,7 @@
         <v>338</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -8181,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="I240" sqref="I240"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8552,7 +8552,7 @@
         <v>143</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8596,7 +8596,7 @@
         <v>292</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9443,7 +9443,7 @@
         <v>213</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -10224,7 +10224,7 @@
         <v>289</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -10268,7 +10268,7 @@
         <v>268</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
